--- a/planning et journal.xlsx
+++ b/planning et journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\MyProject151\module-151-TERCIER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA054F1A-8C4D-4FB5-BDB6-FA7E103E6D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EC65F9-86F3-4469-AD37-91F28629E12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>Planning</t>
   </si>
@@ -405,12 +405,39 @@
   <si>
     <t>session est ouverte,utilisateur authentifié,tous les champs bien remplis</t>
   </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coaching et explication des erreurs à amélioré </t>
+  </si>
+  <si>
+    <t>améloration du serveur pour les filtres et pour les corrections discuté</t>
+  </si>
+  <si>
+    <t>finalisation de l'application hébergé correction des bugs résiduel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amélioration de la doc </t>
+  </si>
+  <si>
+    <t>finalisation de la doc et du journal</t>
+  </si>
+  <si>
+    <t>finalisation de l'application en local pour que tout fonctionne en local</t>
+  </si>
+  <si>
+    <t>mise en place de l'ébergement Cpanel en version minimal</t>
+  </si>
+  <si>
+    <t>amélioration des fonctions ajout, effacé et modifier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +539,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -916,11 +950,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,25 +959,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -975,48 +993,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,16 +1008,147 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,703 +1464,705 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.41796875" customWidth="1"/>
-    <col min="2" max="16" width="8" customWidth="1"/>
+    <col min="1" max="1" width="24.41796875" style="27" customWidth="1"/>
+    <col min="2" max="16" width="8" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="11.41796875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30.6" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:16" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="2" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="N3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="18">
         <v>300231</v>
       </c>
-      <c r="P3" s="57"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-      <c r="N4" s="2" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="N4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="58" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="58" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="58" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="58" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="60"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" s="31" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="15"/>
+      <c r="B9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="15"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="15"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:16" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="15"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="1:16" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="15"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="15"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="15"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="15"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="15"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:16" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="15"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" ht="72" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="15"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="15"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="15"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="15"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="15"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="15"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="42"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="54"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="42"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="37"/>
-      <c r="P27" s="42"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="42"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="42"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="42"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="42" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="42" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="53" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2058,43 +2170,43 @@
       <c r="A33" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="42" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="18" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="65" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2124,10 +2236,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2138,383 +2250,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:3" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25">
+      <c r="A8" s="11">
         <v>45691</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25">
+      <c r="A10" s="11">
         <v>45692</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="44"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="44"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="44"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="12">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="44"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="44"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25">
+      <c r="A17" s="11">
         <v>45698</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="44">
+      <c r="A18" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="12">
         <v>2.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25">
+      <c r="A23" s="11">
         <v>45699</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="12">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25">
+      <c r="A30" s="11">
         <v>45710</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25">
+      <c r="A32" s="11">
         <v>45711</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25">
+      <c r="A34" s="11">
         <v>45712</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="12">
         <v>5.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="12">
         <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="25"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="25"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="25">
+      <c r="A40" s="11">
         <v>45713</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="12">
         <v>1.25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="23" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="11">
+        <v>45733</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="11">
+        <v>45774</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="11"/>
+      <c r="B48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="11">
+        <v>45781</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="11">
+        <v>45782</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="11">
+        <v>45783</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="26">
-        <f>SUM(C8:C42)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="27" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="12">
+        <f>SUM(C8:C53)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="28" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="29" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="28" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="29" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="29" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2532,31 +2743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7442f395a2f2e391644929420800d261">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf3c00512c267160086bc4e3bdbd6c9b" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2825,26 +3011,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4DA84AD-EAF3-41A5-A7BC-188357338185}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2861,4 +3053,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>